--- a/ApiSetHeirarchy.xlsx
+++ b/ApiSetHeirarchy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graygeol\source\repos\HttpWebTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E340B4-3582-4599-81C4-8EB81B927EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575AD38-AE79-473B-9C3A-0B29C6A86882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1980" windowWidth="13920" windowHeight="16680" xr2:uid="{FD49C4C0-3D0D-4F18-B090-60891D1D546A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD49C4C0-3D0D-4F18-B090-60891D1D546A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,6 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -265,6 +264,7 @@
           <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -336,30 +336,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75A56E35-DE20-4FA9-8CB9-2C134AC0ED8D}" name="Table1" displayName="Table1" ref="A1:L35" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:L35" xr:uid="{75A56E35-DE20-4FA9-8CB9-2C134AC0ED8D}">
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I35">
-    <sortCondition ref="I1:I35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75A56E35-DE20-4FA9-8CB9-2C134AC0ED8D}" name="Table1" displayName="Table1" ref="A1:L35" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:L35" xr:uid="{75A56E35-DE20-4FA9-8CB9-2C134AC0ED8D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L35">
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CED2A330-2323-445C-9F52-2A67537AEB93}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{B52228AF-CDEF-4BD7-A778-9E2AC53E023C}" name="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B52228AF-CDEF-4BD7-A778-9E2AC53E023C}" name="1" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{836E3D23-E94B-4F07-BD48-E55007E42B26}" name="2"/>
     <tableColumn id="4" xr3:uid="{C15B9E22-FFAB-4DE3-98B8-8E2A9A773E52}" name="3"/>
-    <tableColumn id="5" xr3:uid="{8A186F60-3C19-42F9-BA97-86700C28347C}" name="4" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7C47ED43-831F-48BE-963A-44D6EBB4C6C8}" name="5" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C8F06B66-BCBB-4611-89F1-D3E5B6ED28DF}" name="6" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{DE4E0533-40EC-48F3-9ABC-9F4853E41191}" name="7" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8A186F60-3C19-42F9-BA97-86700C28347C}" name="4" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{7C47ED43-831F-48BE-963A-44D6EBB4C6C8}" name="5" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C8F06B66-BCBB-4611-89F1-D3E5B6ED28DF}" name="6" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{DE4E0533-40EC-48F3-9ABC-9F4853E41191}" name="7" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{A8C6967C-75D9-4EF9-A869-CA6C9531F543}" name="Class"/>
     <tableColumn id="10" xr3:uid="{F516E8A3-E990-49F0-8A28-FAB22741E136}" name="Lowest" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{7958037B-FA60-4815-96B4-9DB729703AA8}" name="Engine" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{43EB891B-1171-4FC2-98E4-EED9C24A0E0B}" name="Extensions" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{7958037B-FA60-4815-96B4-9DB729703AA8}" name="Engine" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{43EB891B-1171-4FC2-98E4-EED9C24A0E0B}" name="Extensions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,7 +659,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,47 +730,55 @@
       </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="8">
         <v>2</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -795,65 +797,63 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>28</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="8">
         <v>2</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" s="8">
         <v>2</v>
@@ -889,194 +889,215 @@
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10" s="8">
-        <v>7</v>
-      </c>
-      <c r="K10" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="J11" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" s="8">
         <v>7</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J13" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J14" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="12"/>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J15" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="J16" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="8">
+        <v>3</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="8">
-        <v>6</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="J19" s="8">
         <v>6</v>
       </c>
@@ -1085,62 +1106,57 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>31</v>
-      </c>
-      <c r="B20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="J20" s="8">
         <v>7</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="J21" s="8">
-        <v>3</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K21" s="17"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H22" s="12"/>
       <c r="J22" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="8"/>
@@ -1151,10 +1167,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1169,99 +1185,92 @@
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="I24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="8">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="8">
+        <v>5</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="6"/>
+      <c r="J26" s="8">
+        <v>6</v>
       </c>
       <c r="K26" s="17"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="8">
+        <v>7</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1269,7 +1278,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>32</v>
@@ -1279,154 +1288,145 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>9</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J29" s="8">
-        <v>4</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K29" s="17"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="17"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J32" s="8">
-        <v>4</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K32" s="17"/>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>13</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="8">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>14</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>3</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="J35" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="8"/>

--- a/ApiSetHeirarchy.xlsx
+++ b/ApiSetHeirarchy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graygeol\source\repos\HttpWebTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575AD38-AE79-473B-9C3A-0B29C6A86882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B93D87-77F1-47BC-A5E9-413A8A74A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD49C4C0-3D0D-4F18-B090-60891D1D546A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{FD49C4C0-3D0D-4F18-B090-60891D1D546A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>AbbreviatedResponseObject</t>
   </si>
@@ -138,10 +138,13 @@
     <t>Engine</t>
   </si>
   <si>
-    <t>Extensions</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -241,7 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -353,7 +364,7 @@
     <tableColumn id="9" xr3:uid="{A8C6967C-75D9-4EF9-A869-CA6C9531F543}" name="Class"/>
     <tableColumn id="10" xr3:uid="{F516E8A3-E990-49F0-8A28-FAB22741E136}" name="Lowest" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{7958037B-FA60-4815-96B4-9DB729703AA8}" name="Engine" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{43EB891B-1171-4FC2-98E4-EED9C24A0E0B}" name="Extensions" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{43EB891B-1171-4FC2-98E4-EED9C24A0E0B}" name="Created" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,17 +670,17 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="16"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +718,7 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -722,13 +733,13 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="18">
         <v>5</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="8"/>
+      <c r="K2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -746,13 +757,13 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="K3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -770,11 +781,11 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="18">
         <v>2</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -789,11 +800,13 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="J5" s="8">
+      <c r="J5" s="18">
         <v>2</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -808,14 +821,13 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -830,14 +842,13 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -855,13 +866,15 @@
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="18">
         <v>2</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="K8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -879,13 +892,13 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="18">
         <v>2</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="8"/>
+      <c r="K9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -903,13 +916,13 @@
       <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="18">
         <v>3</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="K10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -927,11 +940,13 @@
       <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="18">
         <v>4</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -949,11 +964,13 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="18">
         <v>7</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -971,11 +988,11 @@
       <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="18">
         <v>4</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -993,11 +1010,11 @@
       <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="18">
         <v>3</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1012,11 +1029,13 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="J15" s="8">
+      <c r="J15" s="18">
         <v>5</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1031,11 +1050,14 @@
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="J16" s="8">
+      <c r="I16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
         <v>5</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1053,13 +1075,15 @@
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="18">
         <v>3</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="8"/>
+      <c r="K17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1077,13 +1101,15 @@
       <c r="I18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="18">
         <v>4</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="K18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1098,11 +1124,16 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="J19" s="8">
+      <c r="I19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="8"/>
+      <c r="J19" s="18">
+        <v>6</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1117,11 +1148,16 @@
         <v>5</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="J20" s="8">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="18">
         <v>7</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="8"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1136,11 +1172,16 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="J21" s="8">
+      <c r="I21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="8"/>
+      <c r="J21" s="18">
+        <v>6</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1155,11 +1196,16 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="J22" s="8">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="18">
         <v>7</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="8"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1174,14 +1220,13 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="8"/>
+      <c r="J23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1199,13 +1244,13 @@
       <c r="I24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="18">
         <v>2</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="8"/>
+      <c r="K24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1220,11 +1265,16 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="7"/>
-      <c r="J25" s="8">
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="18">
         <v>5</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1239,11 +1289,16 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="8">
+      <c r="I26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="18">
+        <v>6</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -1258,11 +1313,16 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
-      <c r="J27" s="8">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="18">
         <v>7</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1277,14 +1337,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="8"/>
+      <c r="J28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -1302,11 +1361,11 @@
       <c r="I29" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="18">
         <v>1</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="8"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1324,11 +1383,13 @@
       <c r="I30" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="8"/>
+      <c r="J30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1343,11 +1404,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="J31" s="8">
+      <c r="J31" s="18">
         <v>2</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -1365,11 +1428,11 @@
       <c r="I32" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="18">
         <v>1</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="8"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -1384,14 +1447,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="8"/>
+      <c r="J33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -1406,11 +1468,16 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="J34" s="8">
+      <c r="I34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="8"/>
+      <c r="J34" s="18">
+        <v>6</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -1425,11 +1492,16 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="J35" s="8">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="18">
         <v>7</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="8"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
